--- a/АПЗ шаблон.xlsx
+++ b/АПЗ шаблон.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Avrora\Github\egov_script\egov-script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praktik22050\egov-script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD2EE1E1-4BFB-4809-8CCD-92B9554F5DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2CA695-AAE5-4000-B7A8-2721F94A4CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{629A0110-9436-46E5-97B5-CC9C598D78A3}"/>
+    <workbookView xWindow="1560" yWindow="4450" windowWidth="28800" windowHeight="15460" xr2:uid="{629A0110-9436-46E5-97B5-CC9C598D78A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <t>777777777777</t>
   </si>
   <si>
-    <t>//10.10.10.144/Serv-55/Отдел аренды/1.КаР-Тел/СМР ВВОД/Жамбылская область/TAR_Sunny/1 этап/CL23100902144228.pdf</t>
+    <t>file://10.10.10.144/Serv-55/%D0%9E%D1%82%D0%B4%D0%B5%D0%BB%20%D0%B0%D1%80%D0%B5%D0%BD%D0%B4%D1%8B/1.%D0%9A%D0%B0%D0%A0-%D0%A2%D0%B5%D0%BB/%D0%A1%D0%9C%D0%A0%20%D0%92%D0%92%D0%9E%D0%94/%D0%A2%D1%83%D1%80%D0%BA%D0%B5%D1%81%D1%82%D0%B0%D0%BD%D1%81%D0%BA%D0%B0%D1%8F%20%D0%BE%D0%B1%D0%BB%D0%B0%D1%81%D1%82%D1%8C/SHM_Tau/%D0%90%D0%9F%D0%97/SHM_Tau_%D0%90%D0%9F%D0%97.pdf</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
